--- a/biology/Médecine/Épicondyle_médial_du_fémur/Épicondyle_médial_du_fémur.xlsx
+++ b/biology/Médecine/Épicondyle_médial_du_fémur/Épicondyle_médial_du_fémur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89picondyle_m%C3%A9dial_du_f%C3%A9mur</t>
+          <t>Épicondyle_médial_du_fémur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épicondyle médial du fémur (ou tubercule condylien interne du fémur ou tubérosité interne du fémur) est la saillie osseuse située sur la face médiale du condyle médial du fémur.
 Son versant postérieur donne insertion au ligament collatéral tibial et au chef médial du muscle gastrocnémien.
